--- a/biology/Zoologie/Angistorhinus/Angistorhinus.xlsx
+++ b/biology/Zoologie/Angistorhinus/Angistorhinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angistorhinus est un genre éteint de phytosaures du Trias supérieur, retrouvé au Texas et au Wyoming (États-Unis). Son nom signifie « museau crochet ». Il vivait il y a environ 225 à 218 Ma.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Angistorhinus a été créé en 1913 par Maurice G. Mehl avec, pour espèce type, Angistorhinus grandis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Angistorhinus a été créé en 1913 par Maurice G. Mehl avec, pour espèce type, Angistorhinus grandis.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille d'Angistorhinus grandis était de 7 à 8 mètres de longueur[3]. Il se nourrissait de petits tétrapodes et de poissons. Les fossiles des crânes sont longs de 1,20 mètre [4].[réf. nécessaire]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille d'Angistorhinus grandis était de 7 à 8 mètres de longueur. Il se nourrissait de petits tétrapodes et de poissons. Les fossiles des crânes sont longs de 1,20 mètre .[réf. nécessaire]
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Paleobiology Database                   (3 juin 2021)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Paleobiology Database                   (3 juin 2021) :
 † Angistorhinus aeolamnis Eaton, 1965
 † Angistorhinus alticephalus Stovall &amp; Wharton Jr., 1936
 † Angistorhinus grandis Mehl, 1913 - espèce type
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Maurice G. Mehl, « Angistorhinus, a new genus of Phytosauria from the Trias of Wyoming », The Journal of Geology, Chicago, University of Chicago Press, vol. 21,‎ 1913, p. 186-191 (ISSN 0022-1376 et 1537-5269, OCLC 1608377, lire en ligne)</t>
         </is>
